--- a/result/transition_matrix_potential_99_03.xlsx
+++ b/result/transition_matrix_potential_99_03.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Extreme SSD/Dropbox/GitHub/landcover_change/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B35ABD-BE75-E142-9022-25698C22630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C88D274-067D-C94C-B888-CCCB1515DE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{32F61CD0-8F2E-6E4B-81F8-1C1DA4D7D34E}"/>
+    <workbookView xWindow="1940" yWindow="1740" windowWidth="28040" windowHeight="17440" xr2:uid="{32F61CD0-8F2E-6E4B-81F8-1C1DA4D7D34E}"/>
   </bookViews>
   <sheets>
     <sheet name="transition_probability_matrix_1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">transition_probability_matrix_1!$A$1:$E$6</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">transition_probability_matrix_1!$B$1:$F$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Rasamala</t>
   </si>
@@ -78,12 +78,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,13 +104,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -132,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0BE611D-86FF-BF47-91DF-BAD05AEB5C65}" name="transition_probability_matrix_1999_2003" displayName="transition_probability_matrix_1999_2003" ref="A1:E6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E6" xr:uid="{D0BE611D-86FF-BF47-91DF-BAD05AEB5C65}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0BE611D-86FF-BF47-91DF-BAD05AEB5C65}" name="transition_probability_matrix_1999_2003" displayName="transition_probability_matrix_1999_2003" ref="B1:F6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:F6" xr:uid="{D0BE611D-86FF-BF47-91DF-BAD05AEB5C65}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A489F836-F381-214C-A8E2-47CF26B45C2C}" uniqueName="1" name="Rasamala" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{7788254A-19CB-0449-9DF1-9E2AFCDC786C}" uniqueName="2" name="Pine" queryTableFieldId="2"/>
@@ -442,72 +471,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B2D14B-89E9-9145-8A4E-718956AABC61}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>0.8936170212765957</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3.1914893617021274E-2</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>3.7234042553191488E-2</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>3.7234042553191488E-2</v>
       </c>
+      <c r="F2">
+        <v>3.7234042553191488E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2.9177718832891247E-2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.90981432360742709</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2.5198938992042442E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.580901856763926E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -521,38 +556,47 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>5.8035714285714288E-2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0.8392857142857143</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.3392857142857142E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>5.078125E-2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.109375</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>1.171875E-2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.828125</v>
       </c>
     </row>
